--- a/plots/basic_stats/two_var_stats/allmus_subject_matter_simpl_vs_accreditation-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_subject_matter_simpl_vs_accreditation-PC.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,353 +382,1345 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>archaeology</t>
+          <t>airforce</t>
         </is>
       </c>
       <c r="B2">
-        <v>1.346</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="C2">
-        <v>1.296</v>
+        <v>1.672</v>
       </c>
       <c r="D2">
-        <v>2.642</v>
+        <v>2.229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B3">
-        <v>3.814</v>
+        <v>0.372</v>
       </c>
       <c r="C3">
-        <v>3.838</v>
+        <v>0.279</v>
       </c>
       <c r="D3">
-        <v>7.652</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>belief_and_identity</t>
+          <t>aviation</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.823</v>
+        <v>0.186</v>
       </c>
       <c r="C4">
-        <v>1.72</v>
+        <v>0.681</v>
       </c>
       <c r="D4">
-        <v>2.543</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>buildings</t>
+          <t>bicycles</t>
         </is>
       </c>
       <c r="B5">
-        <v>6.281</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>8.923</v>
+        <v>0.217</v>
       </c>
       <c r="D5">
-        <v>15.204</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>communications</t>
+          <t>boats_and_ships</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.174</v>
+        <v>0.31</v>
       </c>
       <c r="C6">
-        <v>0.274</v>
+        <v>1.332</v>
       </c>
       <c r="D6">
-        <v>0.448</v>
+        <v>1.642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>food_and_drink</t>
+          <t>bunker</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.573</v>
+        <v>0.341</v>
       </c>
       <c r="D7">
-        <v>0.598</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>industry_and_manufacture</t>
+          <t>buses_and_trams</t>
         </is>
       </c>
       <c r="B8">
-        <v>1.77</v>
+        <v>0.155</v>
       </c>
       <c r="C8">
-        <v>2.767</v>
+        <v>0.372</v>
       </c>
       <c r="D8">
-        <v>4.537</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>leisure_and_sport</t>
+          <t>bygones</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.424</v>
+        <v>0.031</v>
       </c>
       <c r="C9">
-        <v>2.866</v>
+        <v>0.465</v>
       </c>
       <c r="D9">
-        <v>3.29</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>local_histories</t>
+          <t>canals</t>
         </is>
       </c>
       <c r="B10">
-        <v>12.014</v>
+        <v>0.186</v>
       </c>
       <c r="C10">
-        <v>9.372</v>
+        <v>0.279</v>
       </c>
       <c r="D10">
-        <v>21.386</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>medicine_and_health</t>
+          <t>cars_and_motorbikes</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.449</v>
+        <v>0.093</v>
       </c>
       <c r="C11">
-        <v>0.623</v>
+        <v>2.137</v>
       </c>
       <c r="D11">
-        <v>1.072</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>castles_and_forts</t>
         </is>
       </c>
       <c r="B12">
-        <v>3.365</v>
+        <v>0.774</v>
       </c>
       <c r="C12">
-        <v>1.62</v>
+        <v>1.363</v>
       </c>
       <c r="D12">
-        <v>4.985</v>
+        <v>2.137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>natural_world</t>
+          <t>ceramics</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.548</v>
+        <v>0.248</v>
       </c>
       <c r="C13">
-        <v>1.221</v>
+        <v>0.434</v>
       </c>
       <c r="D13">
-        <v>1.769</v>
+        <v>0.6819999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>church_treasuries</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.545</v>
+        <v>0.217</v>
       </c>
       <c r="D14">
-        <v>1.794</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>civic</t>
         </is>
       </c>
       <c r="B15">
-        <v>2.343</v>
+        <v>0.155</v>
       </c>
       <c r="C15">
-        <v>2.517</v>
+        <v>0.186</v>
       </c>
       <c r="D15">
-        <v>4.859999999999999</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rural_industry</t>
+          <t>clocks_and_watches</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.897</v>
+        <v>0.031</v>
       </c>
       <c r="C16">
-        <v>3.664</v>
+        <v>0.155</v>
       </c>
       <c r="D16">
-        <v>4.561</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>science_and_technology</t>
+          <t>computing_and_gaming</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.249</v>
+        <v>0.093</v>
       </c>
       <c r="C17">
-        <v>0.324</v>
+        <v>0.124</v>
       </c>
       <c r="D17">
-        <v>0.573</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sea_and_seafaring</t>
+          <t>costume_and_textiles</t>
         </is>
       </c>
       <c r="B18">
-        <v>1.047</v>
+        <v>0.31</v>
       </c>
       <c r="C18">
-        <v>1.919</v>
+        <v>0.403</v>
       </c>
       <c r="D18">
-        <v>2.966</v>
+        <v>0.7130000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>crafts</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.174</v>
+        <v>0.031</v>
       </c>
       <c r="C19">
-        <v>1.022</v>
+        <v>0.186</v>
       </c>
       <c r="D19">
-        <v>1.196</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>cricket</t>
         </is>
       </c>
       <c r="B20">
-        <v>1.944</v>
+        <v>0.031</v>
       </c>
       <c r="C20">
-        <v>5.808</v>
+        <v>0.248</v>
       </c>
       <c r="D20">
-        <v>7.752</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>utilities</t>
+          <t>design</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.274</v>
+        <v>0.155</v>
       </c>
       <c r="C21">
-        <v>0.673</v>
+        <v>0.093</v>
       </c>
       <c r="D21">
-        <v>0.9470000000000001</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>war_and_conflict</t>
+          <t>dinosaurs</t>
         </is>
       </c>
       <c r="B22">
-        <v>3.814</v>
+        <v>0.031</v>
       </c>
       <c r="C22">
-        <v>5.409</v>
+        <v>0.124</v>
       </c>
       <c r="D22">
-        <v>9.222999999999999</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>encyclopaedic</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>3.035</v>
+      </c>
+      <c r="C23">
+        <v>0.65</v>
+      </c>
+      <c r="D23">
+        <v>3.685</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ethnic_group</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>0.124</v>
+      </c>
+      <c r="C24">
+        <v>0.619</v>
+      </c>
+      <c r="D24">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>event_or_site</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>0.341</v>
+      </c>
+      <c r="C25">
+        <v>0.805</v>
+      </c>
+      <c r="D25">
+        <v>1.146</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>explorer</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>0.124</v>
+      </c>
+      <c r="C26">
+        <v>0.093</v>
+      </c>
+      <c r="D26">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fairgrounds_and_amusements</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>0.031</v>
+      </c>
+      <c r="C27">
+        <v>0.248</v>
+      </c>
+      <c r="D27">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>farming</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0.31</v>
+      </c>
+      <c r="C28">
+        <v>1.765</v>
+      </c>
+      <c r="D28">
+        <v>2.075</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>film_cinema_and_tv</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>0.062</v>
+      </c>
+      <c r="C29">
+        <v>0.588</v>
+      </c>
+      <c r="D29">
+        <v>0.6499999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fine_and_decorative_arts</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>3.592</v>
+      </c>
+      <c r="C30">
+        <v>2.478</v>
+      </c>
+      <c r="D30">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fire</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>0.062</v>
+      </c>
+      <c r="C31">
+        <v>0.403</v>
+      </c>
+      <c r="D31">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fishing</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>0.217</v>
+      </c>
+      <c r="C32">
+        <v>0.186</v>
+      </c>
+      <c r="D32">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>forges</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0.031</v>
+      </c>
+      <c r="C33">
+        <v>0.186</v>
+      </c>
+      <c r="D33">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>fossils</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.124</v>
+      </c>
+      <c r="D34">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>freemasons</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>0.124</v>
+      </c>
+      <c r="C35">
+        <v>0.155</v>
+      </c>
+      <c r="D35">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>gas_and_electricity</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>0.062</v>
+      </c>
+      <c r="C36">
+        <v>0.155</v>
+      </c>
+      <c r="D36">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>geology</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>0.124</v>
+      </c>
+      <c r="C37">
+        <v>0.372</v>
+      </c>
+      <c r="D37">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0.031</v>
+      </c>
+      <c r="C38">
+        <v>0.248</v>
+      </c>
+      <c r="D38">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>greek_and_egyptian</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0.124</v>
+      </c>
+      <c r="C39">
+        <v>0.031</v>
+      </c>
+      <c r="D39">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>herbaria_and_gardening</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.124</v>
+      </c>
+      <c r="C40">
+        <v>0.217</v>
+      </c>
+      <c r="D40">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0.217</v>
+      </c>
+      <c r="C41">
+        <v>0.31</v>
+      </c>
+      <c r="D41">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>houses</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>6.318</v>
+      </c>
+      <c r="C42">
+        <v>9.693</v>
+      </c>
+      <c r="D42">
+        <v>16.011</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>industrial_life</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.217</v>
+      </c>
+      <c r="C43">
+        <v>0.155</v>
+      </c>
+      <c r="D43">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.124</v>
+      </c>
+      <c r="C44">
+        <v>0.186</v>
+      </c>
+      <c r="D44">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>literary</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>1.239</v>
+      </c>
+      <c r="C45">
+        <v>1.332</v>
+      </c>
+      <c r="D45">
+        <v>2.571</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0.093</v>
+      </c>
+      <c r="C46">
+        <v>0.186</v>
+      </c>
+      <c r="D46">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>medieval</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0.124</v>
+      </c>
+      <c r="C47">
+        <v>0.248</v>
+      </c>
+      <c r="D47">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.217</v>
+      </c>
+      <c r="C48">
+        <v>0.217</v>
+      </c>
+      <c r="D48">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>military</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.279</v>
+      </c>
+      <c r="C49">
+        <v>1.177</v>
+      </c>
+      <c r="D49">
+        <v>1.456</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mining_and_quarrying</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0.465</v>
+      </c>
+      <c r="C50">
+        <v>1.115</v>
+      </c>
+      <c r="D50">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>1.92</v>
+      </c>
+      <c r="C51">
+        <v>2.292</v>
+      </c>
+      <c r="D51">
+        <v>4.212</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.341</v>
+      </c>
+      <c r="C52">
+        <v>0.65</v>
+      </c>
+      <c r="D52">
+        <v>0.9910000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>navy</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>0.279</v>
+      </c>
+      <c r="C53">
+        <v>0.217</v>
+      </c>
+      <c r="D53">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>4.119</v>
+      </c>
+      <c r="C54">
+        <v>7.061</v>
+      </c>
+      <c r="D54">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>palace</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.124</v>
+      </c>
+      <c r="C55">
+        <v>0.093</v>
+      </c>
+      <c r="D55">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>penal</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>0.217</v>
+      </c>
+      <c r="C56">
+        <v>0.279</v>
+      </c>
+      <c r="D56">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>photography</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>0.031</v>
+      </c>
+      <c r="C57">
+        <v>0.31</v>
+      </c>
+      <c r="D57">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>police</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.155</v>
+      </c>
+      <c r="C58">
+        <v>0.65</v>
+      </c>
+      <c r="D58">
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>political</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>0.279</v>
+      </c>
+      <c r="C59">
+        <v>0.372</v>
+      </c>
+      <c r="D59">
+        <v>0.651</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.124</v>
+      </c>
+      <c r="C60">
+        <v>0.093</v>
+      </c>
+      <c r="D60">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>potteries</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0.155</v>
+      </c>
+      <c r="C61">
+        <v>0.186</v>
+      </c>
+      <c r="D61">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>prehistory</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>0.279</v>
+      </c>
+      <c r="C62">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.8360000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>print</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.186</v>
+      </c>
+      <c r="D63">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>professional_association</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0.248</v>
+      </c>
+      <c r="C64">
+        <v>0.124</v>
+      </c>
+      <c r="D64">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>0.031</v>
+      </c>
+      <c r="C65">
+        <v>0.155</v>
+      </c>
+      <c r="D65">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>regiment</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>2.509</v>
+      </c>
+      <c r="C66">
+        <v>1.548</v>
+      </c>
+      <c r="D66">
+        <v>4.057</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>religion</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>0.31</v>
+      </c>
+      <c r="C67">
+        <v>0.588</v>
+      </c>
+      <c r="D67">
+        <v>0.8979999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>religious</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>0.124</v>
+      </c>
+      <c r="C68">
+        <v>0.403</v>
+      </c>
+      <c r="D68">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>religious_buildings</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0.588</v>
+      </c>
+      <c r="C69">
+        <v>0.65</v>
+      </c>
+      <c r="D69">
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rnli</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0.155</v>
+      </c>
+      <c r="D70">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>roman</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0.774</v>
+      </c>
+      <c r="C71">
+        <v>0.465</v>
+      </c>
+      <c r="D71">
+        <v>1.239</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rugby_and_football</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>0.093</v>
+      </c>
+      <c r="C72">
+        <v>0.588</v>
+      </c>
+      <c r="D72">
+        <v>0.6809999999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rural_life</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>0.279</v>
+      </c>
+      <c r="C73">
+        <v>0.96</v>
+      </c>
+      <c r="D73">
+        <v>1.239</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>0.155</v>
+      </c>
+      <c r="C74">
+        <v>0.248</v>
+      </c>
+      <c r="D74">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>scientific</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0.31</v>
+      </c>
+      <c r="C75">
+        <v>0.093</v>
+      </c>
+      <c r="D75">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>shops</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>0.062</v>
+      </c>
+      <c r="C76">
+        <v>0.124</v>
+      </c>
+      <c r="D76">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>steam_and_engines</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>0.062</v>
+      </c>
+      <c r="C77">
+        <v>0.279</v>
+      </c>
+      <c r="D77">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>textiles</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>0.743</v>
+      </c>
+      <c r="C78">
+        <v>0.712</v>
+      </c>
+      <c r="D78">
+        <v>1.455</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>toys_and_models</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>0.217</v>
+      </c>
+      <c r="C79">
+        <v>1.548</v>
+      </c>
+      <c r="D79">
+        <v>1.765</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>trains_and_railways</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>1.115</v>
+      </c>
+      <c r="C80">
+        <v>3.314</v>
+      </c>
+      <c r="D80">
+        <v>4.429</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>water_and_waste</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>0.279</v>
+      </c>
+      <c r="C81">
+        <v>0.681</v>
+      </c>
+      <c r="D81">
+        <v>0.9600000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>watermills</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>0.124</v>
+      </c>
+      <c r="C82">
+        <v>0.805</v>
+      </c>
+      <c r="D82">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>windmills</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>0.186</v>
+      </c>
+      <c r="C83">
+        <v>0.403</v>
+      </c>
+      <c r="D83">
+        <v>0.589</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>zoology</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>0.093</v>
+      </c>
+      <c r="C84">
+        <v>0.093</v>
+      </c>
+      <c r="D84">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>COL_TOT</t>
         </is>
       </c>
-      <c r="B23">
-        <v>42.024</v>
-      </c>
-      <c r="C23">
-        <v>57.974</v>
-      </c>
-      <c r="D23">
-        <v>99.99800000000001</v>
+      <c r="B85">
+        <v>37.885</v>
+      </c>
+      <c r="C85">
+        <v>62.132</v>
+      </c>
+      <c r="D85">
+        <v>100.017</v>
       </c>
     </row>
   </sheetData>
